--- a/Desenvolvimento/4.Teste/Roteiro de Teste.xlsx
+++ b/Desenvolvimento/4.Teste/Roteiro de Teste.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IFSP\Semestres\ADS-6-SEM\DWII\LostNFound\Desenvolvimento\4.Teste\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/External_HD/dev_HD/faculdade/LostNFound/Desenvolvimento/4.Teste/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101E0125-A8BC-F64A-81BD-AED1C33BBEFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="913" activeTab="3"/>
+    <workbookView xWindow="-38380" yWindow="-7120" windowWidth="38400" windowHeight="21100" tabRatio="913" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
@@ -26,13 +27,13 @@
     <definedName name="__xlfn_IFERROR">NA()</definedName>
     <definedName name="combo_SimNao">AUX!$A$2:$A$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="84">
   <si>
     <t>Caso de Uso</t>
   </si>
@@ -64,9 +65,6 @@
     <t>Massa de Teste:</t>
   </si>
   <si>
-    <t>&lt;Caso de Uso&gt;</t>
-  </si>
-  <si>
     <t>UCS001</t>
   </si>
   <si>
@@ -245,12 +243,54 @@
   </si>
   <si>
     <t>Lista de usuários filtrados</t>
+  </si>
+  <si>
+    <t>Manter Usuario</t>
+  </si>
+  <si>
+    <t>Manter Item</t>
+  </si>
+  <si>
+    <t>Manter Categorias</t>
+  </si>
+  <si>
+    <t>Manter Locais</t>
+  </si>
+  <si>
+    <t>Manter Cargos</t>
+  </si>
+  <si>
+    <t>Responsividade</t>
+  </si>
+  <si>
+    <t>Acesso de Links</t>
+  </si>
+  <si>
+    <t>Design Intuitivo</t>
+  </si>
+  <si>
+    <t>Visualização das imagens</t>
+  </si>
+  <si>
+    <t>Todos Funcionam</t>
+  </si>
+  <si>
+    <t>Imagens Funcionam</t>
+  </si>
+  <si>
+    <t>Telas de edição não responsivas</t>
+  </si>
+  <si>
+    <t>Caso de Uso 1</t>
+  </si>
+  <si>
+    <t></t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -971,21 +1011,21 @@
     </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Bom" xfId="1"/>
-    <cellStyle name="Cálculo" xfId="2" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="3"/>
-    <cellStyle name="Entrada" xfId="4" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="5" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="6"/>
+    <cellStyle name="Bad" xfId="5" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Calculation" xfId="2" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="4" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Neutra" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="7"/>
-    <cellStyle name="Nota" xfId="8" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Porcentagem 2" xfId="9"/>
-    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="11" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="12" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título 5" xfId="13"/>
+    <cellStyle name="Normal 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Note" xfId="8" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Porcentagem 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Título 5" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Total" xfId="14" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="11" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1415,34 +1455,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="4.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.1640625" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="32"/>
       <c r="C2" s="41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -1454,14 +1494,14 @@
       <c r="K2" s="41"/>
       <c r="L2" s="42"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" s="33"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1469,7 +1509,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="34"/>
     </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="33"/>
       <c r="C4" s="26" t="s">
         <v>0</v>
@@ -1492,10 +1532,10 @@
       <c r="K4" s="3"/>
       <c r="L4" s="34"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5" s="33"/>
       <c r="C5" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="3"/>
@@ -1511,10 +1551,10 @@
       <c r="K5" s="3"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B6" s="33"/>
       <c r="C6" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="3"/>
@@ -1528,7 +1568,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B7" s="33"/>
       <c r="C7" s="28"/>
       <c r="D7" s="29"/>
@@ -1541,7 +1581,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B8" s="33"/>
       <c r="C8" s="28"/>
       <c r="D8" s="29"/>
@@ -1554,7 +1594,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B9" s="33"/>
       <c r="C9" s="28"/>
       <c r="D9" s="29"/>
@@ -1567,7 +1607,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B10" s="33"/>
       <c r="C10" s="28"/>
       <c r="D10" s="29"/>
@@ -1580,7 +1620,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="34"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B11" s="33"/>
       <c r="C11" s="28"/>
       <c r="D11" s="29"/>
@@ -1593,7 +1633,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="34"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B12" s="33"/>
       <c r="C12" s="28"/>
       <c r="D12" s="29"/>
@@ -1606,7 +1646,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="34"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B13" s="33"/>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
@@ -1619,7 +1659,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="34"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B14" s="33"/>
       <c r="C14" s="28"/>
       <c r="D14" s="29"/>
@@ -1632,7 +1672,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="34"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B15" s="33"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
@@ -1645,7 +1685,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="34"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B16" s="33"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
@@ -1658,7 +1698,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="34"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" s="33"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
@@ -1671,7 +1711,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="34"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18" s="33"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
@@ -1684,7 +1724,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="34"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" s="33"/>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
@@ -1697,10 +1737,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="34"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" s="33"/>
       <c r="C20" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="30"/>
       <c r="E20" s="3"/>
@@ -1712,7 +1752,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="34"/>
     </row>
-    <row r="21" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" s="33"/>
       <c r="C21" s="31">
         <f>COUNTA(C5:C19)</f>
@@ -1743,7 +1783,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="34"/>
     </row>
-    <row r="22" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B22" s="36"/>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
@@ -1768,30 +1808,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1805,27 +1845,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IT19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" style="7" customWidth="1"/>
-    <col min="6" max="7" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="254" width="9.140625" style="7"/>
-    <col min="255" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="17.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" style="7" customWidth="1"/>
+    <col min="6" max="7" width="15.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="254" width="9.1640625" style="7"/>
+    <col min="255" max="16384" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
@@ -1833,23 +1873,23 @@
       <c r="C1" s="43"/>
       <c r="IT1" s="8"/>
     </row>
-    <row r="2" spans="1:254" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:254" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="IT2" s="8"/>
     </row>
-    <row r="3" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:254" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="45" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
       <c r="IT3" s="8"/>
     </row>
-    <row r="4" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="46" t="s">
         <v>8</v>
       </c>
@@ -1857,7 +1897,7 @@
       <c r="C4" s="22"/>
       <c r="IT4" s="8"/>
     </row>
-    <row r="5" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:254" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
@@ -1865,48 +1905,362 @@
       <c r="C5" s="22"/>
       <c r="IT5" s="8"/>
     </row>
-    <row r="6" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="IT6" s="8"/>
     </row>
-    <row r="7" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="C8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="F8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="40" t="s">
-        <v>22</v>
-      </c>
       <c r="G8" s="40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="17" t="s">
+        <v>75</v>
+      </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="19"/>
+      <c r="D9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+    </row>
+    <row r="10" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="15">
+        <v>2</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+    </row>
+    <row r="11" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15">
+        <v>3</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15">
+        <v>4</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21">
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="15">
+        <v>5</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21">
+        <v>0</v>
+      </c>
+      <c r="G13" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="16">
+        <v>6</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:254" x14ac:dyDescent="0.15">
+      <c r="A15" s="15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:254" ht="15" x14ac:dyDescent="0.15">
+      <c r="A16" s="15">
+        <v>8</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="15">
+        <v>9</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="15">
+        <v>10</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="16">
+        <v>11</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:IT19"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="82.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="254" width="9.1640625" style="7"/>
+    <col min="255" max="16384" width="9.1640625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="IT1" s="8"/>
+    </row>
+    <row r="2" spans="1:254" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="44">
+        <v>5</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="IT2" s="8"/>
+    </row>
+    <row r="3" spans="1:254" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="IT3" s="8"/>
+    </row>
+    <row r="4" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="22"/>
+      <c r="IT4" s="8"/>
+    </row>
+    <row r="5" spans="1:254" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="22"/>
+      <c r="IT5" s="8"/>
+    </row>
+    <row r="6" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="IT6" s="8"/>
+    </row>
+    <row r="7" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16">
+        <v>1</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="9"/>
@@ -1926,14 +2280,22 @@
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
     </row>
-    <row r="10" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15">
         <v>2</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="19"/>
+      <c r="B10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="9"/>
@@ -1953,40 +2315,64 @@
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
     </row>
-    <row r="11" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>3</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="20"/>
+      <c r="B11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>4</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="21"/>
+      <c r="B12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>5</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="21"/>
+      <c r="B13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16">
         <v>6</v>
       </c>
@@ -1997,7 +2383,7 @@
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:254" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:254" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>7</v>
       </c>
@@ -2008,7 +2394,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:254" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:254" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>8</v>
       </c>
@@ -2019,7 +2405,7 @@
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>9</v>
       </c>
@@ -2030,7 +2416,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>10</v>
       </c>
@@ -2041,313 +2427,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
-        <v>11</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-  </mergeCells>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IT19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="82.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="254" width="9.140625" style="7"/>
-    <col min="255" max="16384" width="9.140625" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="IT1" s="8"/>
-    </row>
-    <row r="2" spans="1:254" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="44">
-        <v>6</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="IT2" s="8"/>
-    </row>
-    <row r="3" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="IT3" s="8"/>
-    </row>
-    <row r="4" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="22"/>
-      <c r="IT4" s="8"/>
-    </row>
-    <row r="5" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="22"/>
-      <c r="IT5" s="8"/>
-    </row>
-    <row r="6" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="IT6" s="8"/>
-    </row>
-    <row r="7" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
-        <v>1</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-    </row>
-    <row r="10" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
-        <v>2</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-    </row>
-    <row r="11" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
-        <v>3</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
-        <v>4</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
-        <v>5</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
-        <v>6</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:254" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
-        <v>7</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:254" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
-        <v>8</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
-        <v>9</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="15">
-        <v>10</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="16">
         <v>11</v>
       </c>
@@ -2376,25 +2456,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="82.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
@@ -2405,9 +2485,9 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -2416,9 +2496,9 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="45" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -2427,7 +2507,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
         <v>8</v>
       </c>
@@ -2438,7 +2518,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
@@ -2449,20 +2529,20 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -2471,104 +2551,104 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="31" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="C8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="39" t="s">
+      <c r="F8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="40" t="s">
-        <v>22</v>
-      </c>
       <c r="G8" s="40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>1</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="E9" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="E10" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>3</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>4</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="E12" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>5</v>
       </c>
@@ -2579,7 +2659,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>6</v>
       </c>
@@ -2590,7 +2670,7 @@
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>7</v>
       </c>
@@ -2601,7 +2681,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>8</v>
       </c>
@@ -2612,7 +2692,7 @@
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>9</v>
       </c>
@@ -2623,7 +2703,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>10</v>
       </c>
@@ -2634,7 +2714,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>11</v>
       </c>
@@ -2645,7 +2725,7 @@
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2654,7 +2734,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2675,23 +2755,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
@@ -2702,9 +2782,9 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -2713,9 +2793,9 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="45" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -2724,7 +2804,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
         <v>8</v>
       </c>
@@ -2735,7 +2815,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
@@ -2746,20 +2826,20 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -2768,106 +2848,106 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="31" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="C8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="39" t="s">
+      <c r="F8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="40" t="s">
-        <v>22</v>
-      </c>
       <c r="G8" s="40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>1</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>3</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>4</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>61</v>
-      </c>
       <c r="E12" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>5</v>
       </c>
@@ -2878,7 +2958,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>6</v>
       </c>
@@ -2889,7 +2969,7 @@
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>7</v>
       </c>
@@ -2900,7 +2980,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>8</v>
       </c>
@@ -2911,7 +2991,7 @@
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>9</v>
       </c>
@@ -2922,7 +3002,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>10</v>
       </c>
@@ -2933,7 +3013,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>11</v>
       </c>
@@ -2956,23 +3036,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
-    <col min="3" max="3" width="82.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="82.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
@@ -2983,9 +3063,9 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -2994,9 +3074,9 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="45" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -3005,7 +3085,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
         <v>8</v>
       </c>
@@ -3016,7 +3096,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
@@ -3027,20 +3107,20 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -3049,106 +3129,106 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="31" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="C8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="39" t="s">
+      <c r="F8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="40" t="s">
-        <v>22</v>
-      </c>
       <c r="G8" s="40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>1</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>3</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>4</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>5</v>
       </c>
@@ -3159,7 +3239,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>6</v>
       </c>
@@ -3170,7 +3250,7 @@
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>7</v>
       </c>
@@ -3181,7 +3261,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>8</v>
       </c>
@@ -3192,7 +3272,7 @@
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>9</v>
       </c>
@@ -3203,7 +3283,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>10</v>
       </c>
@@ -3214,7 +3294,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>11</v>
       </c>
@@ -3237,23 +3317,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
@@ -3264,9 +3344,9 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -3275,9 +3355,9 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="45" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -3286,7 +3366,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
         <v>8</v>
       </c>
@@ -3297,7 +3377,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
@@ -3308,20 +3388,20 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -3330,104 +3410,104 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="31" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="C8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="39" t="s">
+      <c r="F8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="40" t="s">
-        <v>22</v>
-      </c>
       <c r="G8" s="40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>1</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>3</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>4</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>5</v>
       </c>
@@ -3438,7 +3518,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>6</v>
       </c>
@@ -3449,7 +3529,7 @@
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>7</v>
       </c>
@@ -3460,7 +3540,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>8</v>
       </c>
@@ -3471,7 +3551,7 @@
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>9</v>
       </c>
@@ -3482,7 +3562,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>10</v>
       </c>
@@ -3493,7 +3573,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>11</v>
       </c>
